--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -1,138 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Ordem de Serviço</t>
+  </si>
+  <si>
+    <t>Bonificação (R$)</t>
+  </si>
+  <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>07/06/2025</t>
+  </si>
+  <si>
+    <t>ShowRoom</t>
+  </si>
+  <si>
+    <t>Araujo</t>
+  </si>
+  <si>
+    <t>Lote 202 - Lacre: Carrefour</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -211,6 +174,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +209,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,206 +385,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ordem de Serviço</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Bonificação (R$)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Técnico</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>69349920</v>
       </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Francisco</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>69361038</v>
       </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Bruno</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>69361038</v>
       </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ronaldo</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>69360335</v>
       </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ronaldo</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>69360335</v>
       </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Bruno</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>69391681</v>
       </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Bruno</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>69391681</v>
       </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Ronaldo</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>69373976</v>
       </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Ronaldo</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>69373976</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Bruno</t>
-        </is>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>69373976</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>69434446</v>
+      </c>
+      <c r="D14">
+        <v>250</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575A4771-53A7-437B-8DAC-85E1364A7E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -56,17 +61,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,28 +80,39 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,19 +402,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="10.15625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -428,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -445,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
@@ -462,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
@@ -479,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
@@ -496,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
@@ -513,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6</v>
       </c>
@@ -530,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>7</v>
       </c>
@@ -547,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>8</v>
       </c>
@@ -564,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>9</v>
       </c>
@@ -581,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>10</v>
       </c>
@@ -598,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>11</v>
       </c>
@@ -615,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>12</v>
       </c>
@@ -632,7 +649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>13</v>
       </c>
@@ -649,18 +666,76 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45818</v>
+      </c>
+      <c r="C16" s="1">
+        <v>69436857</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45818</v>
+      </c>
+      <c r="C17" s="1">
+        <v>69436857</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45818</v>
+      </c>
+      <c r="C18" s="1">
+        <v>69445426</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45818</v>
+      </c>
+      <c r="C19" s="1">
+        <v>69445426</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575A4771-53A7-437B-8DAC-85E1364A7E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC01BD8-DCBF-4D0E-986F-4265F6347573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -403,15 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -734,6 +735,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45822</v>
+      </c>
+      <c r="C20" s="1">
+        <v>82981004255</v>
+      </c>
+      <c r="D20">
+        <v>250</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC01BD8-DCBF-4D0E-986F-4265F6347573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681233D7-DCFB-496D-8A18-BDA889A68470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -752,6 +752,40 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45828</v>
+      </c>
+      <c r="C21" s="1">
+        <v>613</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45828</v>
+      </c>
+      <c r="C22" s="1">
+        <v>613</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681233D7-DCFB-496D-8A18-BDA889A68470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C5F189-1803-4672-98BF-D8A3635ED62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -786,6 +786,40 @@
         <v>7</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45831</v>
+      </c>
+      <c r="C23" s="1">
+        <v>642</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45831</v>
+      </c>
+      <c r="C24" s="1">
+        <v>642</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C5F189-1803-4672-98BF-D8A3635ED62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C89D938-2A15-40AD-ACB6-2F3991AD79F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Lote 202 - Lacre: Carrefour</t>
+  </si>
+  <si>
+    <t>Bruno fez sozinho</t>
+  </si>
+  <si>
+    <t>Estava fazendo triagem Infracommerce</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -684,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>15</v>
       </c>
@@ -701,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>16</v>
       </c>
@@ -718,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>17</v>
       </c>
@@ -735,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>18</v>
       </c>
@@ -752,7 +758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>19</v>
       </c>
@@ -769,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -786,7 +792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>21</v>
       </c>
@@ -803,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>22</v>
       </c>
@@ -818,6 +824,46 @@
       </c>
       <c r="E24" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45834</v>
+      </c>
+      <c r="C25" s="1">
+        <v>69596484</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45834</v>
+      </c>
+      <c r="C26" s="1">
+        <v>69596484</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C89D938-2A15-40AD-ACB6-2F3991AD79F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB355AD5-D628-4452-AF30-3AA977B67E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -866,6 +866,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C27" s="1">
+        <v>69553031</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB355AD5-D628-4452-AF30-3AA977B67E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2FCB46-CF01-46D4-BD36-FBA77E24DBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -886,6 +886,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C28" s="1">
+        <v>69514093</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -8,19 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2FCB46-CF01-46D4-BD36-FBA77E24DBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68BF323-E847-4B37-8483-6E4EDB090974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="ARAUJO" sheetId="4" r:id="rId1"/>
+    <sheet name="RONALDO" sheetId="3" r:id="rId2"/>
+    <sheet name="BRUNO" sheetId="2" r:id="rId3"/>
+    <sheet name="TOTAL" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ARAUJO!$A$1:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BRUNO!$A$1:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RONALDO!$A$1:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TOTAL!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="27">
   <si>
     <t>Data</t>
   </si>
@@ -62,19 +84,133 @@
   </si>
   <si>
     <t>Estava fazendo triagem Infracommerce</t>
+  </si>
+  <si>
+    <r>
+      <t>Local e Data:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ______________________________________</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assinatura:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> _________________________________________</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nome:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ___________________________________________</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CPF/RG:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ______________________________________________</t>
+    </r>
+  </si>
+  <si>
+    <t>TERMO DE CIÊNCIA E CONCORDÂNCIA – BONIFICAÇÃO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reconheço que a bonificação tem caráter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>variável e não recorrente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, vinculada ao desempenho e satisfação dos clientes atendidos, e</t>
+    </r>
+  </si>
+  <si>
+    <t>nada mais tenho a alegar ou pleitear em relação a valores de bonificação ou quaisquer outras verbas adicionais relativas ao período mencionado.</t>
+  </si>
+  <si>
+    <t>Estou ciente de que o valor corresponde às avaliações devidamente verificadas e validadas pela equipe responsável,</t>
+  </si>
+  <si>
+    <t>conforme critérios estabelecidos e acordados.</t>
+  </si>
+  <si>
+    <t>Referente à bonificação por avaliações positivas (5 estrelas) no perfil do Google da empresa e atendimentos realizados no mês.</t>
+  </si>
+  <si>
+    <t>Assino este termo em concordância com os valores e com a ciência de que o pagamento será efetuado junto com o Salário.</t>
+  </si>
+  <si>
+    <t>MÊS:</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -101,10 +237,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,506 +571,2001 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842B5B7-6AF9-45BD-B201-5E66B8A989EE}">
+  <sheetPr filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="4.3125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.9453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.15625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="4.3125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
         <v>69349920</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
         <v>69361038</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
         <v>69361038</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
         <v>69360335</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
         <v>69360335</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
         <v>69391681</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
         <v>69391681</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
         <v>69373976</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
         <v>69373976</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>120</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>120</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>250</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>69434446</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>250</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>100</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>45818</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>69436857</v>
       </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>45818</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>69436857</v>
       </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>45818</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>69445426</v>
       </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>45818</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>69445426</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>45822</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>82981004255</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>250</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>45828</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>613</v>
       </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>45828</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>613</v>
       </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>45831</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>642</v>
       </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>45831</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>642</v>
       </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>45834</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>69596484</v>
       </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>45834</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>69596484</v>
       </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>45835</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>69553031</v>
       </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="D27" s="5">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>45835</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>69514093</v>
       </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="6">
+        <f>SUBTOTAL(9,D2:D28)</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="8"/>
+      <c r="B33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:E28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Araujo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A31:E31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D491AA0-4C15-44CF-9609-B1C66832A7B0}">
+  <sheetPr filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.3125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="2.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.9453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="4.3125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>69349920</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>69361038</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>69361038</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>69360335</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>69360335</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>69391681</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>69391681</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>69373976</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>69373976</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>120</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>120</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>250</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>69434446</v>
+      </c>
+      <c r="D14" s="5">
+        <v>250</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45818</v>
+      </c>
+      <c r="C16" s="4">
+        <v>69436857</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45818</v>
+      </c>
+      <c r="C17" s="4">
+        <v>69436857</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45818</v>
+      </c>
+      <c r="C18" s="4">
+        <v>69445426</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45818</v>
+      </c>
+      <c r="C19" s="4">
+        <v>69445426</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45822</v>
+      </c>
+      <c r="C20" s="4">
+        <v>82981004255</v>
+      </c>
+      <c r="D20" s="5">
+        <v>250</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C21" s="4">
+        <v>613</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C22" s="4">
+        <v>613</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45831</v>
+      </c>
+      <c r="C23" s="4">
+        <v>642</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45831</v>
+      </c>
+      <c r="C24" s="4">
+        <v>642</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C25" s="4">
+        <v>69596484</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C26" s="4">
+        <v>69596484</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45835</v>
+      </c>
+      <c r="C27" s="4">
+        <v>69553031</v>
+      </c>
+      <c r="D27" s="5">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45835</v>
+      </c>
+      <c r="C28" s="4">
+        <v>69514093</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="6">
+        <f>SUBTOTAL(9,D2:D28)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:E28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Ronaldo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="B31:F31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DC6151-17D2-47B5-A44A-9C5AF01EA2D9}">
+  <sheetPr filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:K48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.3125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="2.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.9453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="4.3125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>69349920</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>69361038</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>69361038</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>69360335</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>69360335</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>69391681</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>69391681</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>69373976</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>69373976</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>120</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>120</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>250</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>69434446</v>
+      </c>
+      <c r="D14" s="5">
+        <v>250</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45818</v>
+      </c>
+      <c r="C16" s="4">
+        <v>69436857</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45818</v>
+      </c>
+      <c r="C17" s="4">
+        <v>69436857</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45818</v>
+      </c>
+      <c r="C18" s="4">
+        <v>69445426</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45818</v>
+      </c>
+      <c r="C19" s="4">
+        <v>69445426</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45822</v>
+      </c>
+      <c r="C20" s="4">
+        <v>82981004255</v>
+      </c>
+      <c r="D20" s="5">
+        <v>250</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C21" s="4">
+        <v>613</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45828</v>
+      </c>
+      <c r="C22" s="4">
+        <v>613</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45831</v>
+      </c>
+      <c r="C23" s="4">
+        <v>642</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45831</v>
+      </c>
+      <c r="C24" s="4">
+        <v>642</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C25" s="4">
+        <v>69596484</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C26" s="4">
+        <v>69596484</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45835</v>
+      </c>
+      <c r="C27" s="4">
+        <v>69553031</v>
+      </c>
+      <c r="D27" s="5">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45835</v>
+      </c>
+      <c r="C28" s="4">
+        <v>69514093</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="6">
+        <f>SUBTOTAL(9,D2:D28)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:E28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Bruno"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="B31:F31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.3125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3.734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.9453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.83984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.26171875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="4.3125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45840</v>
+      </c>
+      <c r="C2" s="2">
+        <v>82981004292</v>
+      </c>
+      <c r="D2" s="5">
+        <v>250</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45840</v>
+      </c>
+      <c r="C3" s="2">
+        <v>82981004292</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45841</v>
+      </c>
+      <c r="C4" s="4">
+        <v>69531787</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45841</v>
+      </c>
+      <c r="C5" s="4">
+        <v>69642563</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45841</v>
+      </c>
+      <c r="C6" s="4">
+        <v>69531787</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45841</v>
+      </c>
+      <c r="C7" s="4">
+        <v>69642563</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB99E62-772F-451B-8B7B-3DFD5F5BC0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE4BA3F-4804-47E4-B9E4-5EA7C93F5E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{340A7D78-9F74-4795-B815-B0BCB910886D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Bruno fez sozinho</t>
   </si>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7C978-5043-434E-A353-73395B78712F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.3125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -592,6 +592,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45841</v>
+      </c>
+      <c r="C8" s="3">
+        <v>82981004249</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45841</v>
+      </c>
+      <c r="C9" s="3">
+        <v>82981004249</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bonificacoes.xlsx
+++ b/bonificacoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE4BA3F-4804-47E4-B9E4-5EA7C93F5E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359FB329-8386-4C54-99D5-F7AAE3F540CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{340A7D78-9F74-4795-B815-B0BCB910886D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Bruno fez sozinho</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Instalação Geladeira</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7C978-5043-434E-A353-73395B78712F}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.3125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -626,6 +629,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45840</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>250</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
